--- a/TW2/資料庫.xlsx
+++ b/TW2/資料庫.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d19856acab6d8b31/文件/GitHub/testing/TW2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yituo\OneDrive\文件\testing\TW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{849AC3CC-5DF2-483D-BF8A-F1C5BE48616F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14689C65-14F2-4A1A-B111-E87F1D5B2627}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{F8D7F1C9-A868-4A90-A5A7-27A145304F00}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F8D7F1C9-A868-4A90-A5A7-27A145304F00}"/>
   </bookViews>
   <sheets>
     <sheet name="靜態" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>道路方向</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +106,41 @@
   </si>
   <si>
     <t>當日平均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南北</t>
+  </si>
+  <si>
+    <t>速限(km/hr)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路寬(m)(1/3m)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路權[主:(50~80)/支:(40~70)/NULL]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>總秒數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全紅時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路口名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全龍潭路/安心龍潭路</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,22 +505,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DA7E35-E941-4BA5-B936-0342F9C346F3}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.25" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.125" customWidth="1"/>
+    <col min="17" max="18" width="6.375" customWidth="1"/>
+    <col min="19" max="19" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -510,8 +555,38 @@
       <c r="H1" t="s">
         <v>5</v>
       </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -523,6 +598,62 @@
       </c>
       <c r="E2" t="s">
         <v>4</v>
+      </c>
+      <c r="J2">
+        <v>857</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2">
+        <v>50</v>
+      </c>
+      <c r="N2">
+        <v>6</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>100</v>
+      </c>
+      <c r="Q2">
+        <v>50</v>
+      </c>
+      <c r="R2">
+        <v>3</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3">
+        <v>40</v>
+      </c>
+      <c r="N3">
+        <v>6</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>100</v>
+      </c>
+      <c r="Q3">
+        <v>50</v>
+      </c>
+      <c r="R3">
+        <v>3</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -540,16 +671,16 @@
       <selection activeCell="F1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -579,18 +710,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA73467-B343-4E26-B2CA-3EEBAD84C8C3}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.625" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -610,7 +741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>17</v>
       </c>

--- a/TW2/資料庫.xlsx
+++ b/TW2/資料庫.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yituo\OneDrive\文件\testing\TW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14689C65-14F2-4A1A-B111-E87F1D5B2627}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D0030D-3845-4F00-B719-809FA722E30D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F8D7F1C9-A868-4A90-A5A7-27A145304F00}"/>
+    <workbookView xWindow="4245" yWindow="5745" windowWidth="21435" windowHeight="13110" activeTab="2" xr2:uid="{F8D7F1C9-A868-4A90-A5A7-27A145304F00}"/>
   </bookViews>
   <sheets>
     <sheet name="靜態" sheetId="1" r:id="rId1"/>
@@ -507,7 +507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DA7E35-E941-4BA5-B936-0342F9C346F3}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -668,7 +668,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:F1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -710,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA73467-B343-4E26-B2CA-3EEBAD84C8C3}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/TW2/資料庫.xlsx
+++ b/TW2/資料庫.xlsx
@@ -8,14 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yituo\OneDrive\文件\testing\TW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D0030D-3845-4F00-B719-809FA722E30D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A3650C-B569-43E4-9070-23A4EEC6DCFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="5745" windowWidth="21435" windowHeight="13110" activeTab="2" xr2:uid="{F8D7F1C9-A868-4A90-A5A7-27A145304F00}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{F8D7F1C9-A868-4A90-A5A7-27A145304F00}"/>
   </bookViews>
   <sheets>
     <sheet name="靜態" sheetId="1" r:id="rId1"/>
     <sheet name="秒" sheetId="2" r:id="rId2"/>
     <sheet name="日" sheetId="3" r:id="rId3"/>
+    <sheet name="靜態_new" sheetId="6" r:id="rId4"/>
+    <sheet name="車流資料_S_ew" sheetId="5" r:id="rId5"/>
+    <sheet name="車流資料_S_ns" sheetId="7" r:id="rId6"/>
+    <sheet name="車流資料_d" sheetId="8" r:id="rId7"/>
+    <sheet name="工作表1" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="99">
   <si>
     <t>道路方向</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,6 +146,265 @@
   </si>
   <si>
     <t>安全龍潭路/安心龍潭路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A857</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路口資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">table 1 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">table 2 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">table 3 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>車流資料_d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>red =pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yellow = fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R02</t>
+  </si>
+  <si>
+    <t>R02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R03</t>
+  </si>
+  <si>
+    <t>車流資料_S_ew</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>車流資料_S_ns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東西時速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東西路寬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東西路權</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東西綠燈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南北時速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南北路寬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南北路權</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南北綠燈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vA/rL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2032/4/25_00:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密度(vA/rL)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2032/4/25_00:00:05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均密度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R04</t>
+  </si>
+  <si>
+    <t>R05</t>
+  </si>
+  <si>
+    <t>R06</t>
+  </si>
+  <si>
+    <t>R07</t>
+  </si>
+  <si>
+    <t>R08</t>
+  </si>
+  <si>
+    <t>R09</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>東西路權路權[主:(50~80)/支:(40~70)/NULL]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天安路/武漢路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海路/四月路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香港路/七二一路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香港路/八三一路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京路/霧霾路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烏魯木齊路/火災路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新疆路/棉花路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新時代路/特色路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛語路/習語路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>躍進路/飢荒路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通商路/寬衣路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一帶一路/負債路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京路/靖國路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川路/捐款路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十里山路/兩百斤路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉紅路/玻璃路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳滑路/出征路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R21</t>
+  </si>
+  <si>
+    <t>R22</t>
+  </si>
+  <si>
+    <t>農管路/成管路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上山路/下鄉路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新疆路/集中路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行人路/天國路</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -148,7 +412,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -164,13 +428,41 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -187,8 +479,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -505,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DA7E35-E941-4BA5-B936-0342F9C346F3}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -519,12 +826,11 @@
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.25" customWidth="1"/>
+    <col min="10" max="11" width="12.75" customWidth="1"/>
     <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.125" customWidth="1"/>
     <col min="16" max="16" width="9.125" customWidth="1"/>
     <col min="17" max="18" width="6.375" customWidth="1"/>
     <col min="19" max="19" width="9.5" bestFit="1" customWidth="1"/>
@@ -599,8 +905,8 @@
       <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="J2">
-        <v>857</v>
+      <c r="J2" t="s">
+        <v>29</v>
       </c>
       <c r="K2" t="s">
         <v>28</v>
@@ -656,7 +962,322 @@
         <v>1</v>
       </c>
     </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="L9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="L10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" t="s">
+        <v>14</v>
+      </c>
+      <c r="P11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="H12">
+        <v>50</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13">
+        <v>40</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13">
+        <v>50</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" t="s">
+        <v>14</v>
+      </c>
+      <c r="P17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="L21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="L22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>35</v>
+      </c>
+      <c r="O23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24" t="s">
+        <v>39</v>
+      </c>
+      <c r="N24" s="4">
+        <v>48329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25" t="s">
+        <v>40</v>
+      </c>
+      <c r="N25" s="4">
+        <v>48330</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+      <c r="J28" t="s">
+        <v>51</v>
+      </c>
+      <c r="K28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>100</v>
+      </c>
+      <c r="D29">
+        <v>50</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>50</v>
+      </c>
+      <c r="H29">
+        <v>40</v>
+      </c>
+      <c r="I29">
+        <v>6</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A9:E9"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -667,8 +1288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78716F74-01D3-47C4-AE41-3C6444FDBDA4}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -710,8 +1331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA73467-B343-4E26-B2CA-3EEBAD84C8C3}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -759,4 +1380,1265 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F88149A-5070-4E33-9E79-CD7074AE3D3E}">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
+      <c r="H2">
+        <v>40</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3">
+        <v>120</v>
+      </c>
+      <c r="D3">
+        <v>60</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>60</v>
+      </c>
+      <c r="H3">
+        <v>40</v>
+      </c>
+      <c r="I3">
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>40</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5">
+        <v>110</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>55</v>
+      </c>
+      <c r="H5">
+        <v>40</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+      <c r="H6">
+        <v>40</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7">
+        <v>120</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>60</v>
+      </c>
+      <c r="H7">
+        <v>40</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8">
+        <v>140</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>70</v>
+      </c>
+      <c r="H8">
+        <v>40</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>50</v>
+      </c>
+      <c r="H9">
+        <v>40</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10">
+        <v>110</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>50</v>
+      </c>
+      <c r="H10">
+        <v>40</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>50</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>50</v>
+      </c>
+      <c r="H11">
+        <v>40</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>50</v>
+      </c>
+      <c r="H12">
+        <v>40</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <v>50</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>50</v>
+      </c>
+      <c r="H13">
+        <v>40</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <v>50</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>50</v>
+      </c>
+      <c r="H14">
+        <v>40</v>
+      </c>
+      <c r="I14">
+        <v>6</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>50</v>
+      </c>
+      <c r="H15">
+        <v>40</v>
+      </c>
+      <c r="I15">
+        <v>6</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>50</v>
+      </c>
+      <c r="H16">
+        <v>40</v>
+      </c>
+      <c r="I16">
+        <v>6</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <v>50</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>50</v>
+      </c>
+      <c r="H17">
+        <v>40</v>
+      </c>
+      <c r="I17">
+        <v>6</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18">
+        <v>100</v>
+      </c>
+      <c r="D18">
+        <v>50</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>50</v>
+      </c>
+      <c r="H18">
+        <v>40</v>
+      </c>
+      <c r="I18">
+        <v>6</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="D19">
+        <v>50</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>50</v>
+      </c>
+      <c r="H19">
+        <v>40</v>
+      </c>
+      <c r="I19">
+        <v>6</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <v>50</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>50</v>
+      </c>
+      <c r="H20">
+        <v>40</v>
+      </c>
+      <c r="I20">
+        <v>6</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+      <c r="D21">
+        <v>50</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>50</v>
+      </c>
+      <c r="H21">
+        <v>40</v>
+      </c>
+      <c r="I21">
+        <v>6</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+      <c r="D22">
+        <v>50</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>50</v>
+      </c>
+      <c r="H22">
+        <v>40</v>
+      </c>
+      <c r="I22">
+        <v>6</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+      <c r="D23">
+        <v>50</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>50</v>
+      </c>
+      <c r="H23">
+        <v>40</v>
+      </c>
+      <c r="I23">
+        <v>6</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA79275-F1A3-4406-838D-C3EE031333BF}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F21747-5135-498F-BE94-1C85BA6EC416}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DD421E-8112-4BEB-A670-BE03C7E85513}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="4">
+        <v>48329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="4">
+        <v>48330</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC19B0D-0765-401F-98E9-81826906F90C}">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>50</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>50</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TW2/資料庫.xlsx
+++ b/TW2/資料庫.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yituo\OneDrive\文件\testing\TW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A3650C-B569-43E4-9070-23A4EEC6DCFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B479CD6-1484-4022-AA21-DD9F86C7B900}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{F8D7F1C9-A868-4A90-A5A7-27A145304F00}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{F8D7F1C9-A868-4A90-A5A7-27A145304F00}"/>
   </bookViews>
   <sheets>
     <sheet name="靜態" sheetId="1" r:id="rId1"/>
     <sheet name="秒" sheetId="2" r:id="rId2"/>
     <sheet name="日" sheetId="3" r:id="rId3"/>
-    <sheet name="靜態_new" sheetId="6" r:id="rId4"/>
-    <sheet name="車流資料_S_ew" sheetId="5" r:id="rId5"/>
-    <sheet name="車流資料_S_ns" sheetId="7" r:id="rId6"/>
-    <sheet name="車流資料_d" sheetId="8" r:id="rId7"/>
-    <sheet name="工作表1" sheetId="4" r:id="rId8"/>
+    <sheet name="工作表1" sheetId="4" r:id="rId4"/>
+    <sheet name="靜態_new" sheetId="6" r:id="rId5"/>
+    <sheet name="車流資料_S_ew" sheetId="5" r:id="rId6"/>
+    <sheet name="車流資料_S_ns" sheetId="7" r:id="rId7"/>
+    <sheet name="車流資料_d" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -483,9 +483,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -497,6 +494,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -963,13 +963,13 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
       <c r="L9" t="s">
         <v>32</v>
       </c>
@@ -981,19 +981,19 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
       <c r="L10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B11" t="s">
@@ -1023,10 +1023,10 @@
       <c r="J11" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="N11" t="s">
@@ -1073,7 +1073,7 @@
       <c r="M12" t="s">
         <v>39</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="N12" s="3" t="s">
         <v>54</v>
       </c>
       <c r="O12">
@@ -1114,7 +1114,7 @@
       <c r="M13" t="s">
         <v>40</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="N13" s="3" t="s">
         <v>56</v>
       </c>
       <c r="O13">
@@ -1135,10 +1135,10 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L17" s="2" t="s">
+      <c r="L17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="M17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="N17" t="s">
@@ -1168,10 +1168,10 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L23" s="2" t="s">
+      <c r="L23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="M23" s="2" t="s">
         <v>1</v>
       </c>
       <c r="N23" t="s">
@@ -1188,7 +1188,7 @@
       <c r="M24" t="s">
         <v>39</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="3">
         <v>48329</v>
       </c>
     </row>
@@ -1199,12 +1199,12 @@
       <c r="M25" t="s">
         <v>40</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="3">
         <v>48330</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B28" t="s">
@@ -1383,1047 +1383,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F88149A-5070-4E33-9E79-CD7074AE3D3E}">
-  <dimension ref="A1:K23"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="23.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2">
-        <v>50</v>
-      </c>
-      <c r="E2">
-        <v>6</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>50</v>
-      </c>
-      <c r="H2">
-        <v>40</v>
-      </c>
-      <c r="I2">
-        <v>6</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3">
-        <v>120</v>
-      </c>
-      <c r="D3">
-        <v>60</v>
-      </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>60</v>
-      </c>
-      <c r="H3">
-        <v>40</v>
-      </c>
-      <c r="I3">
-        <v>6</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4">
-        <v>100</v>
-      </c>
-      <c r="D4">
-        <v>50</v>
-      </c>
-      <c r="E4">
-        <v>6</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>50</v>
-      </c>
-      <c r="H4">
-        <v>40</v>
-      </c>
-      <c r="I4">
-        <v>6</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5">
-        <v>110</v>
-      </c>
-      <c r="D5">
-        <v>50</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>55</v>
-      </c>
-      <c r="H5">
-        <v>40</v>
-      </c>
-      <c r="I5">
-        <v>6</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6">
-        <v>100</v>
-      </c>
-      <c r="D6">
-        <v>50</v>
-      </c>
-      <c r="E6">
-        <v>6</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>50</v>
-      </c>
-      <c r="H6">
-        <v>40</v>
-      </c>
-      <c r="I6">
-        <v>6</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7">
-        <v>120</v>
-      </c>
-      <c r="D7">
-        <v>50</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>60</v>
-      </c>
-      <c r="H7">
-        <v>40</v>
-      </c>
-      <c r="I7">
-        <v>6</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8">
-        <v>140</v>
-      </c>
-      <c r="D8">
-        <v>50</v>
-      </c>
-      <c r="E8">
-        <v>6</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>70</v>
-      </c>
-      <c r="H8">
-        <v>40</v>
-      </c>
-      <c r="I8">
-        <v>6</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9">
-        <v>100</v>
-      </c>
-      <c r="D9">
-        <v>50</v>
-      </c>
-      <c r="E9">
-        <v>6</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>50</v>
-      </c>
-      <c r="H9">
-        <v>40</v>
-      </c>
-      <c r="I9">
-        <v>6</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10">
-        <v>110</v>
-      </c>
-      <c r="D10">
-        <v>50</v>
-      </c>
-      <c r="E10">
-        <v>6</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>50</v>
-      </c>
-      <c r="H10">
-        <v>40</v>
-      </c>
-      <c r="I10">
-        <v>6</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11">
-        <v>100</v>
-      </c>
-      <c r="D11">
-        <v>50</v>
-      </c>
-      <c r="E11">
-        <v>6</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>50</v>
-      </c>
-      <c r="H11">
-        <v>40</v>
-      </c>
-      <c r="I11">
-        <v>6</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12">
-        <v>100</v>
-      </c>
-      <c r="D12">
-        <v>50</v>
-      </c>
-      <c r="E12">
-        <v>6</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>50</v>
-      </c>
-      <c r="H12">
-        <v>40</v>
-      </c>
-      <c r="I12">
-        <v>6</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13">
-        <v>100</v>
-      </c>
-      <c r="D13">
-        <v>50</v>
-      </c>
-      <c r="E13">
-        <v>6</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>50</v>
-      </c>
-      <c r="H13">
-        <v>40</v>
-      </c>
-      <c r="I13">
-        <v>6</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14">
-        <v>100</v>
-      </c>
-      <c r="D14">
-        <v>50</v>
-      </c>
-      <c r="E14">
-        <v>6</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>50</v>
-      </c>
-      <c r="H14">
-        <v>40</v>
-      </c>
-      <c r="I14">
-        <v>6</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15">
-        <v>100</v>
-      </c>
-      <c r="D15">
-        <v>50</v>
-      </c>
-      <c r="E15">
-        <v>6</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>50</v>
-      </c>
-      <c r="H15">
-        <v>40</v>
-      </c>
-      <c r="I15">
-        <v>6</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16">
-        <v>100</v>
-      </c>
-      <c r="D16">
-        <v>50</v>
-      </c>
-      <c r="E16">
-        <v>6</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>50</v>
-      </c>
-      <c r="H16">
-        <v>40</v>
-      </c>
-      <c r="I16">
-        <v>6</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17">
-        <v>100</v>
-      </c>
-      <c r="D17">
-        <v>50</v>
-      </c>
-      <c r="E17">
-        <v>6</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>50</v>
-      </c>
-      <c r="H17">
-        <v>40</v>
-      </c>
-      <c r="I17">
-        <v>6</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18">
-        <v>100</v>
-      </c>
-      <c r="D18">
-        <v>50</v>
-      </c>
-      <c r="E18">
-        <v>6</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>50</v>
-      </c>
-      <c r="H18">
-        <v>40</v>
-      </c>
-      <c r="I18">
-        <v>6</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19">
-        <v>100</v>
-      </c>
-      <c r="D19">
-        <v>50</v>
-      </c>
-      <c r="E19">
-        <v>6</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>50</v>
-      </c>
-      <c r="H19">
-        <v>40</v>
-      </c>
-      <c r="I19">
-        <v>6</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20">
-        <v>100</v>
-      </c>
-      <c r="D20">
-        <v>50</v>
-      </c>
-      <c r="E20">
-        <v>6</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>50</v>
-      </c>
-      <c r="H20">
-        <v>40</v>
-      </c>
-      <c r="I20">
-        <v>6</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21">
-        <v>100</v>
-      </c>
-      <c r="D21">
-        <v>50</v>
-      </c>
-      <c r="E21">
-        <v>6</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>50</v>
-      </c>
-      <c r="H21">
-        <v>40</v>
-      </c>
-      <c r="I21">
-        <v>6</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22">
-        <v>100</v>
-      </c>
-      <c r="D22">
-        <v>50</v>
-      </c>
-      <c r="E22">
-        <v>6</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>50</v>
-      </c>
-      <c r="H22">
-        <v>40</v>
-      </c>
-      <c r="I22">
-        <v>6</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23">
-        <v>100</v>
-      </c>
-      <c r="D23">
-        <v>50</v>
-      </c>
-      <c r="E23">
-        <v>6</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>50</v>
-      </c>
-      <c r="H23">
-        <v>40</v>
-      </c>
-      <c r="I23">
-        <v>6</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA79275-F1A3-4406-838D-C3EE031333BF}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F21747-5135-498F-BE94-1C85BA6EC416}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DD421E-8112-4BEB-A670-BE03C7E85513}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="4">
-        <v>48329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="4">
-        <v>48330</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC19B0D-0765-401F-98E9-81826906F90C}">
   <dimension ref="A1:J19"/>
   <sheetViews>
@@ -2437,41 +1396,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
@@ -2641,4 +1600,1045 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F88149A-5070-4E33-9E79-CD7074AE3D3E}">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
+      <c r="H2">
+        <v>40</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3">
+        <v>120</v>
+      </c>
+      <c r="D3">
+        <v>60</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>60</v>
+      </c>
+      <c r="H3">
+        <v>40</v>
+      </c>
+      <c r="I3">
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>40</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5">
+        <v>110</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>55</v>
+      </c>
+      <c r="H5">
+        <v>40</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+      <c r="H6">
+        <v>40</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7">
+        <v>120</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>60</v>
+      </c>
+      <c r="H7">
+        <v>40</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8">
+        <v>140</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>70</v>
+      </c>
+      <c r="H8">
+        <v>40</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>50</v>
+      </c>
+      <c r="H9">
+        <v>40</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10">
+        <v>110</v>
+      </c>
+      <c r="D10">
+        <v>55</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>50</v>
+      </c>
+      <c r="H10">
+        <v>40</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11">
+        <v>110</v>
+      </c>
+      <c r="D11">
+        <v>55</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>50</v>
+      </c>
+      <c r="H11">
+        <v>40</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>50</v>
+      </c>
+      <c r="H12">
+        <v>40</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <v>50</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>50</v>
+      </c>
+      <c r="H13">
+        <v>40</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <v>50</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>50</v>
+      </c>
+      <c r="H14">
+        <v>40</v>
+      </c>
+      <c r="I14">
+        <v>6</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>50</v>
+      </c>
+      <c r="H15">
+        <v>40</v>
+      </c>
+      <c r="I15">
+        <v>6</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>50</v>
+      </c>
+      <c r="H16">
+        <v>40</v>
+      </c>
+      <c r="I16">
+        <v>6</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <v>50</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>50</v>
+      </c>
+      <c r="H17">
+        <v>40</v>
+      </c>
+      <c r="I17">
+        <v>6</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18">
+        <v>100</v>
+      </c>
+      <c r="D18">
+        <v>50</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>50</v>
+      </c>
+      <c r="H18">
+        <v>40</v>
+      </c>
+      <c r="I18">
+        <v>6</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="D19">
+        <v>50</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>50</v>
+      </c>
+      <c r="H19">
+        <v>40</v>
+      </c>
+      <c r="I19">
+        <v>6</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <v>50</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>50</v>
+      </c>
+      <c r="H20">
+        <v>40</v>
+      </c>
+      <c r="I20">
+        <v>6</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+      <c r="D21">
+        <v>50</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>50</v>
+      </c>
+      <c r="H21">
+        <v>40</v>
+      </c>
+      <c r="I21">
+        <v>6</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+      <c r="D22">
+        <v>50</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>50</v>
+      </c>
+      <c r="H22">
+        <v>40</v>
+      </c>
+      <c r="I22">
+        <v>6</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+      <c r="D23">
+        <v>50</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>50</v>
+      </c>
+      <c r="H23">
+        <v>40</v>
+      </c>
+      <c r="I23">
+        <v>6</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA79275-F1A3-4406-838D-C3EE031333BF}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F21747-5135-498F-BE94-1C85BA6EC416}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DD421E-8112-4BEB-A670-BE03C7E85513}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="3">
+        <v>48329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="3">
+        <v>48330</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TW2/資料庫.xlsx
+++ b/TW2/資料庫.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yituo\OneDrive\文件\testing\TW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B479CD6-1484-4022-AA21-DD9F86C7B900}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D84E31A-9918-499A-B254-D490622F2FD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{F8D7F1C9-A868-4A90-A5A7-27A145304F00}"/>
   </bookViews>
@@ -27,12 +27,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="133">
   <si>
     <t>道路方向</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -405,6 +411,126 @@
   </si>
   <si>
     <t>行人路/天國路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2032/4/25_00:00:10</t>
+  </si>
+  <si>
+    <t>2032/4/25_00:00:15</t>
+  </si>
+  <si>
+    <t>2032/4/25_00:00:20</t>
+  </si>
+  <si>
+    <t>2032/4/25_00:00:25</t>
+  </si>
+  <si>
+    <t>2032/4/25_00:00:30</t>
+  </si>
+  <si>
+    <t>2032/4/25_00:00:35</t>
+  </si>
+  <si>
+    <t>2032/4/25_00:00:40</t>
+  </si>
+  <si>
+    <t>2032/4/25_00:00:45</t>
+  </si>
+  <si>
+    <t>2032/4/25_00:00:50</t>
+  </si>
+  <si>
+    <t>2032/4/25_00:00:55</t>
+  </si>
+  <si>
+    <t>2032/4/25_00:00:60</t>
+  </si>
+  <si>
+    <t>Road_Intersection_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Density(vA/rL)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emergency_Vehicle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2032/4/25_00:01:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2032/4/25_00:01:05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2032/4/25_00:01:10</t>
+  </si>
+  <si>
+    <t>2032/4/25_00:01:15</t>
+  </si>
+  <si>
+    <t>2032/4/25_00:01:20</t>
+  </si>
+  <si>
+    <t>2032/4/25_00:01:25</t>
+  </si>
+  <si>
+    <t>2032/4/25_00:01:30</t>
+  </si>
+  <si>
+    <t>密度(vA:?/rL:3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intersection_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotalSeconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeedLimit_ew</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LaneWidth_ew</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoadRight_ew</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GreenLightTime_ew</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeedLimit_ns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LaneWidth_ns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoadRight_ns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GreenLightTime_ns</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,6 +538,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="0.000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -465,12 +594,49 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -479,7 +645,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -497,6 +663,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -814,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DA7E35-E941-4BA5-B936-0342F9C346F3}">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1289,7 +1473,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1604,10 +1788,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F88149A-5070-4E33-9E79-CD7074AE3D3E}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1616,87 +1800,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
+      <c r="A1" t="s">
+        <v>110</v>
       </c>
       <c r="B1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>45</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>46</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>75</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>48</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
         <v>49</v>
       </c>
-      <c r="I1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="I2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" t="s">
         <v>51</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K2" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2">
-        <v>50</v>
-      </c>
-      <c r="E2">
-        <v>6</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>50</v>
-      </c>
-      <c r="H2">
-        <v>40</v>
-      </c>
-      <c r="I2">
-        <v>6</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="C3">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D3">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E3">
         <v>6</v>
@@ -1705,65 +1889,73 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>60</v>
+        <f>C3/2</f>
+        <v>50</v>
       </c>
       <c r="H3">
-        <v>40</v>
+        <f>D3</f>
+        <v>50</v>
       </c>
       <c r="I3">
         <v>6</v>
       </c>
       <c r="J3">
+        <f>IF(F3=1,0,1)</f>
         <v>0</v>
       </c>
       <c r="K3">
-        <v>60</v>
+        <f>G3</f>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D4">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E4">
         <v>9</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <f t="shared" ref="G4:G24" si="0">C4/2</f>
+        <v>60</v>
       </c>
       <c r="H4">
-        <v>40</v>
+        <f t="shared" ref="H4:H24" si="1">D4</f>
+        <v>60</v>
       </c>
       <c r="I4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J4">
+        <f t="shared" ref="J4:J24" si="2">IF(F4=1,0,1)</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <v>50</v>
+        <f t="shared" ref="K4:K24" si="3">G4</f>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D5">
         <v>50</v>
@@ -1775,33 +1967,37 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>55</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="H5">
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
       <c r="I5">
         <v>6</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>55</v>
+        <f t="shared" si="3"/>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E6">
         <v>6</v>
@@ -1810,30 +2006,34 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>55</v>
       </c>
       <c r="H6">
-        <v>40</v>
+        <f>D6</f>
+        <v>60</v>
       </c>
       <c r="I6">
         <v>6</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C7">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D7">
         <v>50</v>
@@ -1845,103 +2045,115 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="H7">
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
       <c r="I7">
         <v>6</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>60</v>
+        <f t="shared" si="3"/>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D8">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>70</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="H8">
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="I8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J8">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8">
-        <v>70</v>
+        <f t="shared" si="3"/>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D9">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>70</v>
       </c>
       <c r="H9">
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>70</v>
       </c>
       <c r="I9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J9">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9">
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D10">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E10">
         <v>6</v>
@@ -1950,27 +2162,31 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
       <c r="H10">
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
       <c r="I10">
         <v>6</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>55</v>
+        <f t="shared" si="3"/>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>97</v>
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
       </c>
       <c r="C11">
         <v>110</v>
@@ -1985,33 +2201,37 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>55</v>
       </c>
       <c r="H11">
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>55</v>
       </c>
       <c r="I11">
         <v>6</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="K11">
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" t="s">
-        <v>83</v>
+        <v>64</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="C12">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D12">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E12">
         <v>6</v>
@@ -2020,27 +2240,31 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>55</v>
       </c>
       <c r="H12">
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>55</v>
       </c>
       <c r="I12">
         <v>6</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13">
         <v>100</v>
@@ -2055,27 +2279,31 @@
         <v>0</v>
       </c>
       <c r="G13">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="H13">
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
       <c r="I13">
         <v>6</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="K13">
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14">
         <v>100</v>
@@ -2090,100 +2318,112 @@
         <v>0</v>
       </c>
       <c r="G14">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="H14">
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
       <c r="I14">
         <v>6</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="K14">
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D15">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>70</v>
       </c>
       <c r="H15">
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>70</v>
       </c>
       <c r="I15">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J15">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K15">
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D16">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>65</v>
       </c>
       <c r="H16">
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="I16">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J16">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K16">
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D17">
         <v>50</v>
@@ -2195,27 +2435,31 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="H17">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="I17">
+        <v>6</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
         <v>40</v>
-      </c>
-      <c r="I17">
-        <v>6</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18">
         <v>100</v>
@@ -2230,33 +2474,37 @@
         <v>0</v>
       </c>
       <c r="G18">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="H18">
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
       <c r="I18">
         <v>6</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="K18">
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C19">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D19">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E19">
         <v>6</v>
@@ -2265,27 +2513,31 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>55</v>
       </c>
       <c r="H19">
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="I19">
         <v>6</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="K19">
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C20">
         <v>100</v>
@@ -2300,27 +2552,31 @@
         <v>0</v>
       </c>
       <c r="G20">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="H20">
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
       <c r="I20">
         <v>6</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="K20">
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21">
         <v>100</v>
@@ -2335,27 +2591,31 @@
         <v>0</v>
       </c>
       <c r="G21">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="H21">
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
       <c r="I21">
         <v>6</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="K21">
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C22">
         <v>100</v>
@@ -2370,54 +2630,101 @@
         <v>0</v>
       </c>
       <c r="G22">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="H22">
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
       <c r="I22">
         <v>6</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="K22">
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23">
+        <v>80</v>
+      </c>
+      <c r="D23">
+        <v>50</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="I23">
+        <v>6</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>94</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>96</v>
       </c>
-      <c r="C23">
-        <v>100</v>
-      </c>
-      <c r="D23">
-        <v>50</v>
-      </c>
-      <c r="E23">
-        <v>6</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>50</v>
-      </c>
-      <c r="H23">
-        <v>40</v>
-      </c>
-      <c r="I23">
-        <v>6</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>50</v>
+      <c r="C24">
+        <v>90</v>
+      </c>
+      <c r="D24">
+        <v>50</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="I24">
+        <v>6</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2429,102 +2736,513 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA79275-F1A3-4406-838D-C3EE031333BF}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
+        <f>F5/300</f>
+        <v>0.02</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>53</v>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
+        <f t="shared" ref="E6:E24" si="0">F6/300</f>
+        <v>0.02</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="11">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="11">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="11">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="11">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F21747-5135-498F-BE94-1C85BA6EC416}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="E4" sqref="E4:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -2538,10 +3256,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2554,11 +3272,15 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="11">
+        <f>F4/300</f>
+        <v>0.02</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2569,72 +3291,796 @@
         <v>56</v>
       </c>
       <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>53</v>
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
+        <f t="shared" ref="E5:E23" si="0">F5/300</f>
+        <v>0.02</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="11">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DD421E-8112-4BEB-A670-BE03C7E85513}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9" style="9"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="9" t="s">
         <v>35</v>
       </c>
       <c r="D3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="10">
         <v>48329</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="11">
+        <f>E4/300</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="10">
         <v>48330</v>
+      </c>
+      <c r="D5" s="11">
+        <f t="shared" ref="D5:D23" si="0">E5/300</f>
+        <v>0.2</v>
+      </c>
+      <c r="E5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="10">
+        <v>48331</v>
+      </c>
+      <c r="D6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.29333333333333333</v>
+      </c>
+      <c r="E6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="10">
+        <v>48332</v>
+      </c>
+      <c r="D7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="E7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="10">
+        <v>48333</v>
+      </c>
+      <c r="D8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.11333333333333333</v>
+      </c>
+      <c r="E8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="10">
+        <v>48334</v>
+      </c>
+      <c r="D9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="E9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="10">
+        <v>48335</v>
+      </c>
+      <c r="D10" s="11">
+        <f t="shared" si="0"/>
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="E10">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="10">
+        <v>48336</v>
+      </c>
+      <c r="D11" s="11">
+        <f t="shared" si="0"/>
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="E11">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="10">
+        <v>48337</v>
+      </c>
+      <c r="D12" s="11">
+        <f t="shared" si="0"/>
+        <v>0.22666666666666666</v>
+      </c>
+      <c r="E12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="10">
+        <v>48338</v>
+      </c>
+      <c r="D13" s="11">
+        <f t="shared" si="0"/>
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="E13">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="10">
+        <v>48339</v>
+      </c>
+      <c r="D14" s="11">
+        <f t="shared" si="0"/>
+        <v>0.25333333333333335</v>
+      </c>
+      <c r="E14">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="10">
+        <v>48340</v>
+      </c>
+      <c r="D15" s="11">
+        <f t="shared" si="0"/>
+        <v>0.28666666666666668</v>
+      </c>
+      <c r="E15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="10">
+        <v>48341</v>
+      </c>
+      <c r="D16" s="11">
+        <f t="shared" si="0"/>
+        <v>0.24333333333333335</v>
+      </c>
+      <c r="E16">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="10">
+        <v>48342</v>
+      </c>
+      <c r="D17" s="11">
+        <f t="shared" si="0"/>
+        <v>0.21</v>
+      </c>
+      <c r="E17">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="10">
+        <v>48343</v>
+      </c>
+      <c r="D18" s="11">
+        <f t="shared" si="0"/>
+        <v>0.18333333333333332</v>
+      </c>
+      <c r="E18">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="10">
+        <v>48344</v>
+      </c>
+      <c r="D19" s="11">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="E19">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="10">
+        <v>48345</v>
+      </c>
+      <c r="D20" s="11">
+        <f t="shared" si="0"/>
+        <v>0.27666666666666667</v>
+      </c>
+      <c r="E20">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="10">
+        <v>48346</v>
+      </c>
+      <c r="D21" s="11">
+        <f t="shared" si="0"/>
+        <v>0.33</v>
+      </c>
+      <c r="E21">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="10">
+        <v>48347</v>
+      </c>
+      <c r="D22" s="11">
+        <f t="shared" si="0"/>
+        <v>0.32666666666666666</v>
+      </c>
+      <c r="E22">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="10">
+        <v>48348</v>
+      </c>
+      <c r="D23" s="11">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="E23">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/TW2/資料庫.xlsx
+++ b/TW2/資料庫.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yituo\OneDrive\文件\testing\TW2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d19856acab6d8b31/文件/GitHub/testing/TW2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D84E31A-9918-499A-B254-D490622F2FD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{5D84E31A-9918-499A-B254-D490622F2FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFD10CFC-902F-4569-A1B5-D643D90F3064}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{F8D7F1C9-A868-4A90-A5A7-27A145304F00}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{F8D7F1C9-A868-4A90-A5A7-27A145304F00}"/>
   </bookViews>
   <sheets>
     <sheet name="靜態" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -320,10 +314,6 @@
     <t>R20</t>
   </si>
   <si>
-    <t>東西路權路權[主:(50~80)/支:(40~70)/NULL]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>天安路/武漢路</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -531,6 +521,10 @@
   </si>
   <si>
     <t>GreenLightTime_ns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東西路權　　[主:(50~80)/支:(40~70)/NULL]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -539,7 +533,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -655,32 +649,32 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1002,25 +996,25 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.75" customWidth="1"/>
-    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.7265625" customWidth="1"/>
+    <col min="12" max="12" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.125" customWidth="1"/>
-    <col min="16" max="16" width="9.125" customWidth="1"/>
-    <col min="17" max="18" width="6.375" customWidth="1"/>
-    <col min="19" max="19" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.08984375" customWidth="1"/>
+    <col min="16" max="16" width="9.08984375" customWidth="1"/>
+    <col min="17" max="18" width="6.36328125" customWidth="1"/>
+    <col min="19" max="19" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1076,7 +1070,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -1120,7 +1114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="L3" t="s">
         <v>21</v>
       </c>
@@ -1146,14 +1140,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
       <c r="L9" t="s">
         <v>32</v>
       </c>
@@ -1164,19 +1158,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
       <c r="L10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -1223,7 +1217,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>28</v>
       </c>
@@ -1267,7 +1261,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>21</v>
       </c>
@@ -1308,17 +1302,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
       <c r="L15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
       <c r="L16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
       <c r="L17" s="1" t="s">
         <v>36</v>
       </c>
@@ -1335,7 +1329,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>37</v>
       </c>
@@ -1343,7 +1337,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>38</v>
       </c>
@@ -1351,7 +1345,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
       <c r="L23" s="1" t="s">
         <v>36</v>
       </c>
@@ -1365,7 +1359,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
       <c r="L24">
         <v>1</v>
       </c>
@@ -1376,7 +1370,7 @@
         <v>48329</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
       <c r="L25">
         <v>2</v>
       </c>
@@ -1387,7 +1381,7 @@
         <v>48330</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -1422,7 +1416,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1476,16 +1470,16 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1519,14 +1513,14 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1546,7 +1540,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>17</v>
       </c>
@@ -1574,40 +1568,40 @@
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1639,7 +1633,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1671,7 +1665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -1703,7 +1697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -1711,67 +1705,67 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>21</v>
       </c>
@@ -1790,51 +1784,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F88149A-5070-4E33-9E79-CD7074AE3D3E}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
         <v>123</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>124</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>125</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>126</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>127</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>128</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>129</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>130</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>131</v>
       </c>
-      <c r="K1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1851,7 +1855,7 @@
         <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="G2" t="s">
         <v>48</v>
@@ -1869,7 +1873,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1908,12 +1912,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4">
         <v>120</v>
@@ -1947,12 +1951,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5">
         <v>100</v>
@@ -1986,12 +1990,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6">
         <v>110</v>
@@ -2025,12 +2029,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7">
         <v>100</v>
@@ -2064,12 +2068,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8">
         <v>120</v>
@@ -2103,12 +2107,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9">
         <v>140</v>
@@ -2142,12 +2146,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10">
         <v>90</v>
@@ -2181,12 +2185,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11">
         <v>110</v>
@@ -2220,12 +2224,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>64</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12">
         <v>110</v>
@@ -2259,12 +2263,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13">
         <v>100</v>
@@ -2298,12 +2302,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14">
         <v>100</v>
@@ -2337,12 +2341,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15">
         <v>140</v>
@@ -2376,12 +2380,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16">
         <v>130</v>
@@ -2415,12 +2419,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17">
         <v>80</v>
@@ -2454,12 +2458,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18">
         <v>100</v>
@@ -2493,12 +2497,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19">
         <v>110</v>
@@ -2532,12 +2536,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20">
         <v>100</v>
@@ -2571,12 +2575,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21">
         <v>100</v>
@@ -2610,12 +2614,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22">
         <v>100</v>
@@ -2649,12 +2653,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C23">
         <v>80</v>
@@ -2688,12 +2692,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C24">
         <v>90</v>
@@ -2739,43 +2743,43 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -2792,7 +2796,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2805,7 +2809,7 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <f>F5/300</f>
         <v>0.02</v>
       </c>
@@ -2813,7 +2817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2826,7 +2830,7 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <f t="shared" ref="E6:E24" si="0">F6/300</f>
         <v>0.02</v>
       </c>
@@ -2834,7 +2838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>3</v>
       </c>
@@ -2842,12 +2846,12 @@
         <v>42</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
@@ -2855,7 +2859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>4</v>
       </c>
@@ -2863,12 +2867,12 @@
         <v>58</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <f t="shared" si="0"/>
         <v>1.6666666666666666E-2</v>
       </c>
@@ -2876,7 +2880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>5</v>
       </c>
@@ -2884,12 +2888,12 @@
         <v>59</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <f t="shared" si="0"/>
         <v>1.6666666666666666E-2</v>
       </c>
@@ -2897,7 +2901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>6</v>
       </c>
@@ -2905,12 +2909,12 @@
         <v>60</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
@@ -2918,7 +2922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>7</v>
       </c>
@@ -2926,12 +2930,12 @@
         <v>61</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
@@ -2939,7 +2943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>8</v>
       </c>
@@ -2947,12 +2951,12 @@
         <v>62</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <f t="shared" si="0"/>
         <v>3.3333333333333335E-3</v>
       </c>
@@ -2960,7 +2964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>9</v>
       </c>
@@ -2968,12 +2972,12 @@
         <v>63</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <f t="shared" si="0"/>
         <v>3.3333333333333335E-3</v>
       </c>
@@ -2981,7 +2985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>10</v>
       </c>
@@ -2989,12 +2993,12 @@
         <v>64</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <f t="shared" si="0"/>
         <v>3.3333333333333335E-3</v>
       </c>
@@ -3002,7 +3006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>11</v>
       </c>
@@ -3010,12 +3014,12 @@
         <v>65</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3023,7 +3027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>12</v>
       </c>
@@ -3031,12 +3035,12 @@
         <v>66</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3044,7 +3048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>13</v>
       </c>
@@ -3052,12 +3056,12 @@
         <v>67</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3065,7 +3069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>14</v>
       </c>
@@ -3073,12 +3077,12 @@
         <v>68</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3086,7 +3090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>15</v>
       </c>
@@ -3094,12 +3098,12 @@
         <v>69</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3107,7 +3111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>16</v>
       </c>
@@ -3115,12 +3119,12 @@
         <v>70</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3128,7 +3132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>17</v>
       </c>
@@ -3136,12 +3140,12 @@
         <v>71</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3149,7 +3153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>18</v>
       </c>
@@ -3157,12 +3161,12 @@
         <v>72</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3170,7 +3174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>19</v>
       </c>
@@ -3178,12 +3182,12 @@
         <v>73</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3191,7 +3195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>20</v>
       </c>
@@ -3199,12 +3203,12 @@
         <v>74</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3223,26 +3227,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F21747-5135-498F-BE94-1C85BA6EC416}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -3256,10 +3260,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3272,7 +3276,7 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <f>F4/300</f>
         <v>0.02</v>
       </c>
@@ -3280,7 +3284,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3293,7 +3297,7 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <f t="shared" ref="E5:E23" si="0">F5/300</f>
         <v>0.02</v>
       </c>
@@ -3301,7 +3305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3309,12 +3313,12 @@
         <v>42</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
@@ -3322,7 +3326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>4</v>
       </c>
@@ -3330,12 +3334,12 @@
         <v>58</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <f t="shared" si="0"/>
         <v>1.3333333333333334E-2</v>
       </c>
@@ -3343,7 +3347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>5</v>
       </c>
@@ -3351,12 +3355,12 @@
         <v>59</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <f t="shared" si="0"/>
         <v>1.3333333333333334E-2</v>
       </c>
@@ -3364,7 +3368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>6</v>
       </c>
@@ -3372,12 +3376,12 @@
         <v>60</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
@@ -3385,7 +3389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>7</v>
       </c>
@@ -3393,12 +3397,12 @@
         <v>61</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
@@ -3406,7 +3410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>8</v>
       </c>
@@ -3414,12 +3418,12 @@
         <v>62</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <f t="shared" si="0"/>
         <v>3.3333333333333335E-3</v>
       </c>
@@ -3427,7 +3431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>9</v>
       </c>
@@ -3435,12 +3439,12 @@
         <v>63</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <f t="shared" si="0"/>
         <v>3.3333333333333335E-3</v>
       </c>
@@ -3448,7 +3452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>10</v>
       </c>
@@ -3456,12 +3460,12 @@
         <v>64</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <f t="shared" si="0"/>
         <v>3.3333333333333335E-3</v>
       </c>
@@ -3469,7 +3473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>11</v>
       </c>
@@ -3477,12 +3481,12 @@
         <v>65</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3490,7 +3494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>12</v>
       </c>
@@ -3498,12 +3502,12 @@
         <v>66</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3511,7 +3515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>13</v>
       </c>
@@ -3519,12 +3523,12 @@
         <v>67</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3532,7 +3536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>14</v>
       </c>
@@ -3540,12 +3544,12 @@
         <v>68</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3553,7 +3557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>15</v>
       </c>
@@ -3561,12 +3565,12 @@
         <v>69</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3574,7 +3578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>16</v>
       </c>
@@ -3582,12 +3586,12 @@
         <v>70</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3595,7 +3599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>17</v>
       </c>
@@ -3603,12 +3607,12 @@
         <v>71</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3616,7 +3620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>18</v>
       </c>
@@ -3624,12 +3628,12 @@
         <v>72</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3637,7 +3641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>19</v>
       </c>
@@ -3645,12 +3649,12 @@
         <v>73</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3658,7 +3662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>20</v>
       </c>
@@ -3666,12 +3670,12 @@
         <v>74</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3691,49 +3695,49 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="9" style="9"/>
+    <col min="3" max="3" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>35</v>
       </c>
       <c r="D3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>48329</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <f>E4/300</f>
         <v>0.16666666666666666</v>
       </c>
@@ -3741,17 +3745,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>48330</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <f t="shared" ref="D5:D23" si="0">E5/300</f>
         <v>0.2</v>
       </c>
@@ -3759,17 +3763,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>48331</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <f t="shared" si="0"/>
         <v>0.29333333333333333</v>
       </c>
@@ -3777,17 +3781,17 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>48332</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <f t="shared" si="0"/>
         <v>0.21666666666666667</v>
       </c>
@@ -3795,17 +3799,17 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>48333</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <f t="shared" si="0"/>
         <v>0.11333333333333333</v>
       </c>
@@ -3813,17 +3817,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>48334</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
@@ -3831,17 +3835,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>48335</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <f t="shared" si="0"/>
         <v>0.31666666666666665</v>
       </c>
@@ -3849,17 +3853,17 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>48336</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <f t="shared" si="0"/>
         <v>0.21666666666666667</v>
       </c>
@@ -3867,17 +3871,17 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>48337</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <f t="shared" si="0"/>
         <v>0.22666666666666666</v>
       </c>
@@ -3885,17 +3889,17 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>48338</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <f t="shared" si="0"/>
         <v>0.31666666666666665</v>
       </c>
@@ -3903,17 +3907,17 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>48339</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <f t="shared" si="0"/>
         <v>0.25333333333333335</v>
       </c>
@@ -3921,17 +3925,17 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <v>48340</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <f t="shared" si="0"/>
         <v>0.28666666666666668</v>
       </c>
@@ -3939,17 +3943,17 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <v>48341</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <f t="shared" si="0"/>
         <v>0.24333333333333335</v>
       </c>
@@ -3957,17 +3961,17 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="9">
         <v>48342</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="10">
         <f t="shared" si="0"/>
         <v>0.21</v>
       </c>
@@ -3975,17 +3979,17 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="9">
         <v>48343</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="10">
         <f t="shared" si="0"/>
         <v>0.18333333333333332</v>
       </c>
@@ -3993,17 +3997,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="9">
         <v>48344</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="10">
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
@@ -4011,17 +4015,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="9">
         <v>48345</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="10">
         <f t="shared" si="0"/>
         <v>0.27666666666666667</v>
       </c>
@@ -4029,17 +4033,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>18</v>
       </c>
       <c r="B21" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="9">
         <v>48346</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="10">
         <f t="shared" si="0"/>
         <v>0.33</v>
       </c>
@@ -4047,17 +4051,17 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>19</v>
       </c>
       <c r="B22" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="9">
         <v>48347</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="10">
         <f t="shared" si="0"/>
         <v>0.32666666666666666</v>
       </c>
@@ -4065,17 +4069,17 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>20</v>
       </c>
       <c r="B23" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="9">
         <v>48348</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="10">
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>

--- a/TW2/資料庫.xlsx
+++ b/TW2/資料庫.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d19856acab6d8b31/文件/GitHub/testing/TW2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yituo\OneDrive\文件\testing\TW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{5D84E31A-9918-499A-B254-D490622F2FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFD10CFC-902F-4569-A1B5-D643D90F3064}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E64351-A66E-4E96-A3DD-911522887C6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{F8D7F1C9-A868-4A90-A5A7-27A145304F00}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{F8D7F1C9-A868-4A90-A5A7-27A145304F00}"/>
   </bookViews>
   <sheets>
     <sheet name="靜態" sheetId="1" r:id="rId1"/>
@@ -21,18 +21,25 @@
     <sheet name="車流資料_S_ew" sheetId="5" r:id="rId6"/>
     <sheet name="車流資料_S_ns" sheetId="7" r:id="rId7"/>
     <sheet name="車流資料_d" sheetId="8" r:id="rId8"/>
+    <sheet name="工作表2" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="133">
   <si>
     <t>道路方向</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -535,7 +542,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -564,6 +571,14 @@
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -639,7 +654,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -675,6 +690,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -996,25 +1014,25 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.7265625" customWidth="1"/>
-    <col min="12" max="12" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.75" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.08984375" customWidth="1"/>
-    <col min="16" max="16" width="9.08984375" customWidth="1"/>
-    <col min="17" max="18" width="6.36328125" customWidth="1"/>
-    <col min="19" max="19" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.125" customWidth="1"/>
+    <col min="16" max="16" width="9.125" customWidth="1"/>
+    <col min="17" max="18" width="6.375" customWidth="1"/>
+    <col min="19" max="19" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1070,7 +1088,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -1114,7 +1132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L3" t="s">
         <v>21</v>
       </c>
@@ -1140,7 +1158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>31</v>
       </c>
@@ -1158,7 +1176,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>30</v>
       </c>
@@ -1170,7 +1188,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -1217,7 +1235,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>28</v>
       </c>
@@ -1261,7 +1279,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>21</v>
       </c>
@@ -1302,17 +1320,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L17" s="1" t="s">
         <v>36</v>
       </c>
@@ -1329,7 +1347,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>37</v>
       </c>
@@ -1337,7 +1355,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>38</v>
       </c>
@@ -1345,7 +1363,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L23" s="1" t="s">
         <v>36</v>
       </c>
@@ -1359,7 +1377,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L24">
         <v>1</v>
       </c>
@@ -1370,7 +1388,7 @@
         <v>48329</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L25">
         <v>2</v>
       </c>
@@ -1381,7 +1399,7 @@
         <v>48330</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -1416,7 +1434,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1470,16 +1488,16 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1513,14 +1531,14 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.625" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1540,7 +1558,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>17</v>
       </c>
@@ -1568,12 +1586,12 @@
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>31</v>
       </c>
@@ -1587,7 +1605,7 @@
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>30</v>
       </c>
@@ -1601,7 +1619,7 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1633,7 +1651,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1665,7 +1683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -1697,7 +1715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -1705,67 +1723,67 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>21</v>
       </c>
@@ -1784,26 +1802,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F88149A-5070-4E33-9E79-CD7074AE3D3E}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.26953125" customWidth="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="7" max="7" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>109</v>
       </c>
@@ -1838,7 +1856,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1873,7 +1891,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1912,7 +1930,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -1951,7 +1969,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1990,7 +2008,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -2029,7 +2047,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -2068,7 +2086,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -2107,7 +2125,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -2146,7 +2164,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -2185,7 +2203,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -2224,7 +2242,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -2263,7 +2281,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -2302,7 +2320,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -2341,7 +2359,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -2380,7 +2398,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>68</v>
       </c>
@@ -2419,7 +2437,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>69</v>
       </c>
@@ -2458,7 +2476,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -2497,7 +2515,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -2536,7 +2554,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>72</v>
       </c>
@@ -2575,7 +2593,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -2614,7 +2632,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>74</v>
       </c>
@@ -2653,7 +2671,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -2692,7 +2710,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -2743,26 +2761,26 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F24" sqref="A1:F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>113</v>
       </c>
@@ -2779,7 +2797,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -2796,7 +2814,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2817,7 +2835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2838,7 +2856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -2859,7 +2877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -2880,7 +2898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -2901,7 +2919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -2922,7 +2940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -2943,7 +2961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -2964,7 +2982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -2985,7 +3003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -3006,7 +3024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -3027,7 +3045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -3048,7 +3066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
@@ -3069,7 +3087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
@@ -3090,7 +3108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
@@ -3111,7 +3129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
@@ -3132,7 +3150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17</v>
       </c>
@@ -3153,7 +3171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
@@ -3174,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19</v>
       </c>
@@ -3195,7 +3213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20</v>
       </c>
@@ -3227,26 +3245,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F21747-5135-498F-BE94-1C85BA6EC416}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="A1:F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -3263,7 +3281,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3284,7 +3302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3305,7 +3323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3326,7 +3344,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -3347,7 +3365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -3368,7 +3386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -3389,7 +3407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -3410,7 +3428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -3431,7 +3449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -3452,7 +3470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -3473,7 +3491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -3494,7 +3512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -3515,7 +3533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -3536,7 +3554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -3557,7 +3575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -3578,7 +3596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -3599,7 +3617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -3620,7 +3638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -3641,7 +3659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
@@ -3662,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -3695,25 +3713,25 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection sqref="A1:E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -3727,7 +3745,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3745,7 +3763,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3763,7 +3781,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3781,7 +3799,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -3799,7 +3817,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -3817,7 +3835,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -3835,7 +3853,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -3853,7 +3871,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -3871,7 +3889,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -3889,7 +3907,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -3907,7 +3925,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -3925,7 +3943,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -3943,7 +3961,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -3961,7 +3979,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -3979,7 +3997,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -3997,7 +4015,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -4015,7 +4033,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -4033,7 +4051,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -4051,7 +4069,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
@@ -4069,7 +4087,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -4086,6 +4104,1253 @@
       <c r="E23">
         <v>72</v>
       </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3977C3C5-8F4F-43FE-A9E6-F50CB4BE6912}">
+  <dimension ref="A1:R26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.5" style="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="8"/>
+    </row>
+    <row r="2" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="8"/>
+    </row>
+    <row r="3" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
+        <v>121</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10">
+        <f>F5/300</f>
+        <v>0.02</v>
+      </c>
+      <c r="F5" s="12">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="10">
+        <f>L5/300</f>
+        <v>0.02</v>
+      </c>
+      <c r="L5" s="12">
+        <v>6</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="9">
+        <v>48329</v>
+      </c>
+      <c r="Q5" s="10">
+        <f>R5/300</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="R5" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10">
+        <f t="shared" ref="E6:E24" si="0">F6/300</f>
+        <v>0.02</v>
+      </c>
+      <c r="F6" s="12">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="10">
+        <f t="shared" ref="K6:K24" si="1">L6/300</f>
+        <v>0.02</v>
+      </c>
+      <c r="L6" s="12">
+        <v>6</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="9">
+        <v>48330</v>
+      </c>
+      <c r="Q6" s="10">
+        <f t="shared" ref="Q6:Q24" si="2">R6/300</f>
+        <v>0.2</v>
+      </c>
+      <c r="R6" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="F7" s="12">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="10">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="L7" s="12">
+        <v>6</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" s="9">
+        <v>48331</v>
+      </c>
+      <c r="Q7" s="10">
+        <f t="shared" si="2"/>
+        <v>0.29333333333333333</v>
+      </c>
+      <c r="R7" s="12">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="F8" s="12">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="10">
+        <f t="shared" si="1"/>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="L8" s="12">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8" t="s">
+        <v>58</v>
+      </c>
+      <c r="P8" s="9">
+        <v>48332</v>
+      </c>
+      <c r="Q8" s="10">
+        <f t="shared" si="2"/>
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="R8" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="F9" s="12">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="10">
+        <f t="shared" si="1"/>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="L9" s="12">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" s="9">
+        <v>48333</v>
+      </c>
+      <c r="Q9" s="10">
+        <f t="shared" si="2"/>
+        <v>0.11333333333333333</v>
+      </c>
+      <c r="R9" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="F10" s="12">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="10">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="L10" s="12">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>6</v>
+      </c>
+      <c r="O10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" s="9">
+        <v>48334</v>
+      </c>
+      <c r="Q10" s="10">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="R10" s="12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="F11" s="12">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="10">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="L11" s="12">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>7</v>
+      </c>
+      <c r="O11" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="9">
+        <v>48335</v>
+      </c>
+      <c r="Q11" s="10">
+        <f t="shared" si="2"/>
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="R11" s="12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="F12" s="12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="10">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="L12" s="12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>8</v>
+      </c>
+      <c r="O12" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" s="9">
+        <v>48336</v>
+      </c>
+      <c r="Q12" s="10">
+        <f t="shared" si="2"/>
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="R12" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="F13" s="12">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>9</v>
+      </c>
+      <c r="H13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="10">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="L13" s="12">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>9</v>
+      </c>
+      <c r="O13" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" s="9">
+        <v>48337</v>
+      </c>
+      <c r="Q13" s="10">
+        <f t="shared" si="2"/>
+        <v>0.22666666666666666</v>
+      </c>
+      <c r="R13" s="12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="10">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="F14" s="12">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" s="10">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="L14" s="12">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>10</v>
+      </c>
+      <c r="O14" t="s">
+        <v>64</v>
+      </c>
+      <c r="P14" s="9">
+        <v>48338</v>
+      </c>
+      <c r="Q14" s="10">
+        <f t="shared" si="2"/>
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="R14" s="12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="12">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="12">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>11</v>
+      </c>
+      <c r="O15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P15" s="9">
+        <v>48339</v>
+      </c>
+      <c r="Q15" s="10">
+        <f t="shared" si="2"/>
+        <v>0.25333333333333335</v>
+      </c>
+      <c r="R15" s="12">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="12">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>12</v>
+      </c>
+      <c r="O16" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16" s="9">
+        <v>48340</v>
+      </c>
+      <c r="Q16" s="10">
+        <f t="shared" si="2"/>
+        <v>0.28666666666666668</v>
+      </c>
+      <c r="R16" s="12">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="12">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>13</v>
+      </c>
+      <c r="O17" t="s">
+        <v>67</v>
+      </c>
+      <c r="P17" s="9">
+        <v>48341</v>
+      </c>
+      <c r="Q17" s="10">
+        <f t="shared" si="2"/>
+        <v>0.24333333333333335</v>
+      </c>
+      <c r="R17" s="12">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="12">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="12">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>14</v>
+      </c>
+      <c r="O18" t="s">
+        <v>68</v>
+      </c>
+      <c r="P18" s="9">
+        <v>48342</v>
+      </c>
+      <c r="Q18" s="10">
+        <f t="shared" si="2"/>
+        <v>0.21</v>
+      </c>
+      <c r="R18" s="12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="12">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="12">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>15</v>
+      </c>
+      <c r="O19" t="s">
+        <v>69</v>
+      </c>
+      <c r="P19" s="9">
+        <v>48343</v>
+      </c>
+      <c r="Q19" s="10">
+        <f t="shared" si="2"/>
+        <v>0.18333333333333332</v>
+      </c>
+      <c r="R19" s="12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="12">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="12">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>16</v>
+      </c>
+      <c r="O20" t="s">
+        <v>70</v>
+      </c>
+      <c r="P20" s="9">
+        <v>48344</v>
+      </c>
+      <c r="Q20" s="10">
+        <f t="shared" si="2"/>
+        <v>0.12</v>
+      </c>
+      <c r="R20" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="12">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>17</v>
+      </c>
+      <c r="H21" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="12">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>17</v>
+      </c>
+      <c r="O21" t="s">
+        <v>71</v>
+      </c>
+      <c r="P21" s="9">
+        <v>48345</v>
+      </c>
+      <c r="Q21" s="10">
+        <f t="shared" si="2"/>
+        <v>0.27666666666666667</v>
+      </c>
+      <c r="R21" s="12">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="12">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>18</v>
+      </c>
+      <c r="H22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="12">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>18</v>
+      </c>
+      <c r="O22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P22" s="9">
+        <v>48346</v>
+      </c>
+      <c r="Q22" s="10">
+        <f t="shared" si="2"/>
+        <v>0.33</v>
+      </c>
+      <c r="R22" s="12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="12">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>19</v>
+      </c>
+      <c r="H23" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="12">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>19</v>
+      </c>
+      <c r="O23" t="s">
+        <v>73</v>
+      </c>
+      <c r="P23" s="9">
+        <v>48347</v>
+      </c>
+      <c r="Q23" s="10">
+        <f t="shared" si="2"/>
+        <v>0.32666666666666666</v>
+      </c>
+      <c r="R23" s="12">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="12">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>20</v>
+      </c>
+      <c r="H24" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="12">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>20</v>
+      </c>
+      <c r="O24" t="s">
+        <v>74</v>
+      </c>
+      <c r="P24" s="9">
+        <v>48348</v>
+      </c>
+      <c r="Q24" s="10">
+        <f t="shared" si="2"/>
+        <v>0.24</v>
+      </c>
+      <c r="R24" s="12">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F26" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
